--- a/sample_counts.xlsx
+++ b/sample_counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caroline/Documents/CRREL/permafrost-pathogens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742DF0E7-F3C5-C74C-986C-8FCB148BF317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE7BA07-575F-5048-A4AB-FC5158B39F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{4B82A738-4680-BC45-998F-07904F984F02}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>gene_1</t>
   </si>
@@ -117,6 +117,81 @@
   </si>
   <si>
     <t>PT2_15.4_R2</t>
+  </si>
+  <si>
+    <t>gene_16</t>
+  </si>
+  <si>
+    <t>gene_17</t>
+  </si>
+  <si>
+    <t>gene_18</t>
+  </si>
+  <si>
+    <t>gene_19</t>
+  </si>
+  <si>
+    <t>gene_20</t>
+  </si>
+  <si>
+    <t>gene_21</t>
+  </si>
+  <si>
+    <t>gene_22</t>
+  </si>
+  <si>
+    <t>gene_23</t>
+  </si>
+  <si>
+    <t>gene_24</t>
+  </si>
+  <si>
+    <t>gene_25</t>
+  </si>
+  <si>
+    <t>gene_26</t>
+  </si>
+  <si>
+    <t>gene_27</t>
+  </si>
+  <si>
+    <t>gene_28</t>
+  </si>
+  <si>
+    <t>gene_29</t>
+  </si>
+  <si>
+    <t>gene_30</t>
+  </si>
+  <si>
+    <t>gene_31</t>
+  </si>
+  <si>
+    <t>gene_32</t>
+  </si>
+  <si>
+    <t>gene_33</t>
+  </si>
+  <si>
+    <t>gene_34</t>
+  </si>
+  <si>
+    <t>gene_35</t>
+  </si>
+  <si>
+    <t>gene_36</t>
+  </si>
+  <si>
+    <t>gene_37</t>
+  </si>
+  <si>
+    <t>gene_38</t>
+  </si>
+  <si>
+    <t>gene_39</t>
+  </si>
+  <si>
+    <t>gene_40</t>
   </si>
 </sst>
 </file>
@@ -474,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834EB249-FA10-D742-93CA-E97B81A8F24A}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1231,6 +1306,1181 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>2170</v>
+      </c>
+      <c r="C17">
+        <v>1140</v>
+      </c>
+      <c r="D17">
+        <v>492</v>
+      </c>
+      <c r="E17">
+        <v>700</v>
+      </c>
+      <c r="F17">
+        <v>611</v>
+      </c>
+      <c r="G17">
+        <v>781</v>
+      </c>
+      <c r="H17">
+        <v>837</v>
+      </c>
+      <c r="I17">
+        <v>799</v>
+      </c>
+      <c r="J17">
+        <v>131</v>
+      </c>
+      <c r="K17">
+        <v>993</v>
+      </c>
+      <c r="L17">
+        <v>1793</v>
+      </c>
+      <c r="M17">
+        <v>3715</v>
+      </c>
+      <c r="N17">
+        <v>1346</v>
+      </c>
+      <c r="O17">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>22</v>
+      </c>
+      <c r="L18">
+        <v>33</v>
+      </c>
+      <c r="M18">
+        <v>36</v>
+      </c>
+      <c r="N18">
+        <v>54</v>
+      </c>
+      <c r="O18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <v>8</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>17</v>
+      </c>
+      <c r="I25">
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>17</v>
+      </c>
+      <c r="L25">
+        <v>33</v>
+      </c>
+      <c r="M25">
+        <v>37</v>
+      </c>
+      <c r="N25">
+        <v>13</v>
+      </c>
+      <c r="O25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>11</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>24</v>
+      </c>
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="M29">
+        <v>56</v>
+      </c>
+      <c r="N29">
+        <v>15</v>
+      </c>
+      <c r="O29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <v>21</v>
+      </c>
+      <c r="I30">
+        <v>34</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>21</v>
+      </c>
+      <c r="L30">
+        <v>36</v>
+      </c>
+      <c r="M30">
+        <v>76</v>
+      </c>
+      <c r="N30">
+        <v>14</v>
+      </c>
+      <c r="O30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>9</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
+      <c r="M31">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>13</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>43</v>
+      </c>
+      <c r="N33">
+        <v>9</v>
+      </c>
+      <c r="O33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>44</v>
+      </c>
+      <c r="F35">
+        <v>27</v>
+      </c>
+      <c r="G35">
+        <v>39</v>
+      </c>
+      <c r="H35">
+        <v>45</v>
+      </c>
+      <c r="I35">
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>76</v>
+      </c>
+      <c r="L35">
+        <v>75</v>
+      </c>
+      <c r="M35">
+        <v>277</v>
+      </c>
+      <c r="N35">
+        <v>60</v>
+      </c>
+      <c r="O35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>33</v>
+      </c>
+      <c r="F37">
+        <v>23</v>
+      </c>
+      <c r="G37">
+        <v>28</v>
+      </c>
+      <c r="H37">
+        <v>27</v>
+      </c>
+      <c r="I37">
+        <v>23</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>56</v>
+      </c>
+      <c r="L37">
+        <v>56</v>
+      </c>
+      <c r="M37">
+        <v>210</v>
+      </c>
+      <c r="N37">
+        <v>57</v>
+      </c>
+      <c r="O37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>28</v>
+      </c>
+      <c r="F38">
+        <v>21</v>
+      </c>
+      <c r="G38">
+        <v>26</v>
+      </c>
+      <c r="H38">
+        <v>28</v>
+      </c>
+      <c r="I38">
+        <v>19</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>53</v>
+      </c>
+      <c r="L38">
+        <v>55</v>
+      </c>
+      <c r="M38">
+        <v>251</v>
+      </c>
+      <c r="N38">
+        <v>58</v>
+      </c>
+      <c r="O38">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>155</v>
+      </c>
+      <c r="C39">
+        <v>113</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>47</v>
+      </c>
+      <c r="F39">
+        <v>57</v>
+      </c>
+      <c r="G39">
+        <v>57</v>
+      </c>
+      <c r="H39">
+        <v>62</v>
+      </c>
+      <c r="I39">
+        <v>60</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>73</v>
+      </c>
+      <c r="L39">
+        <v>147</v>
+      </c>
+      <c r="M39">
+        <v>187</v>
+      </c>
+      <c r="N39">
+        <v>134</v>
+      </c>
+      <c r="O39">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40">
+        <v>548</v>
+      </c>
+      <c r="C40">
+        <v>294</v>
+      </c>
+      <c r="D40">
+        <v>118</v>
+      </c>
+      <c r="E40">
+        <v>183</v>
+      </c>
+      <c r="F40">
+        <v>259</v>
+      </c>
+      <c r="G40">
+        <v>231</v>
+      </c>
+      <c r="H40">
+        <v>278</v>
+      </c>
+      <c r="I40">
+        <v>304</v>
+      </c>
+      <c r="J40">
+        <v>53</v>
+      </c>
+      <c r="K40">
+        <v>341</v>
+      </c>
+      <c r="L40">
+        <v>579</v>
+      </c>
+      <c r="M40">
+        <v>815</v>
+      </c>
+      <c r="N40">
+        <v>289</v>
+      </c>
+      <c r="O40">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
